--- a/Source_Data_and_STables/SuppTable8_Boxplot_summary_statistics.xlsx
+++ b/Source_Data_and_STables/SuppTable8_Boxplot_summary_statistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t xml:space="preserve">Figure</t>
   </si>
@@ -47,6 +47,36 @@
   </si>
   <si>
     <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k top panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes DARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int. Mfs DARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int. Mfs WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Res. Mfs DARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Res. Mfs WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act. Mfs DARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act. Mfs WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k bottom panel</t>
   </si>
   <si>
     <t xml:space="preserve">4g</t>
@@ -168,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,8 +207,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -266,15 +300,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,7 +341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -314,28 +349,28 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1560.41</v>
+        <v>0.1086</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1560.41</v>
+        <v>0.1086</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2091.05</v>
+        <v>0.2302</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3200.29</v>
+        <v>0.2735</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5409.36</v>
+        <v>0.3114</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6629.41</v>
+        <v>0.4322</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>6629.41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4955</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -343,239 +378,703 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.2108</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.2434</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.2742</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.4266</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.2733</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.4522</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.4801</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.2505</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.2975</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.5084</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.0859</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.2648</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.3006</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.4331</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.4747</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.2141</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.2503</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.2924</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.4216</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.1611</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.2073</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.3171</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.3944</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.5045</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.5213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.1461</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.1461</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.2837</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.4469</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.4469</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.1127</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.2248</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.2839</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.4069</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.1443</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.1938</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.2446</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.2922</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.4107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.1384</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.2769</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.3289</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0.5094</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.2925</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.3992</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.5105</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.5105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.2141</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.3806</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.5384</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.5619</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.1701</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.3065</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.4435</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.5593</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.1937</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.3648</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0.3985</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.5035</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0.2451</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.2771</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0.3268</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0.4408</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.4495</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1560.41</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1560.41</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>2091.05</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>3200.29</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>5409.36</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>6629.41</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>6629.41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>14883.2</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>14883.2</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>20669.43</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>24154.73</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>25873.7</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>29955.59</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>29955.59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>64.76</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>64.76</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>136.99</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>163.11</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>208.69</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>208.69</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I20" s="3" t="n">
         <v>571.15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="n">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>601.77</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>601.77</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>837.7</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>1160.51</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>1192.85</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>1235.99</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <v>1773.16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="n">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>0.73</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.14</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>1.36</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I22" s="3" t="n">
         <v>1.78</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="n">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>1.99</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>2.61</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>4.18</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>5.11</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I23" s="3" t="n">
         <v>8.95</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="n">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>0.32</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <v>1.61</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>2.14</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I24" s="3" t="n">
         <v>2.14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="n">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>1.47</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>1.89</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>2.57</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>2.96</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I25" s="3" t="n">
         <v>9.35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
